--- a/log/1步工序错误-1,1,1,1,1,1,1,1错误日志.xlsx
+++ b/log/1步工序错误-1,1,1,1,1,1,1,1错误日志.xlsx
@@ -372,7 +372,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -393,13 +393,24 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B2" t="n">
+        <v>21685</v>
+      </c>
+      <c r="C2" t="n">
+        <v>22777</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="n">
         <v>7</v>
       </c>
-      <c r="B2" t="n">
-        <v>4833</v>
-      </c>
-      <c r="C2" t="n">
-        <v>5811</v>
+      <c r="B3" t="n">
+        <v>19415</v>
+      </c>
+      <c r="C3" t="n">
+        <v>20144</v>
       </c>
     </row>
   </sheetData>

--- a/log/1步工序错误-1,1,1,1,1,1,1,1错误日志.xlsx
+++ b/log/1步工序错误-1,1,1,1,1,1,1,1错误日志.xlsx
@@ -372,7 +372,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -393,24 +393,35 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>21685</v>
+        <v>21253</v>
       </c>
       <c r="C2" t="n">
-        <v>22777</v>
+        <v>21908</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="n">
+        <v>6</v>
+      </c>
+      <c r="B3" t="n">
+        <v>10586</v>
+      </c>
+      <c r="C3" t="n">
+        <v>11782</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="n">
         <v>7</v>
       </c>
-      <c r="B3" t="n">
-        <v>19415</v>
-      </c>
-      <c r="C3" t="n">
-        <v>20144</v>
+      <c r="B4" t="n">
+        <v>296</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1229</v>
       </c>
     </row>
   </sheetData>

--- a/log/1步工序错误-1,1,1,1,1,1,1,1错误日志.xlsx
+++ b/log/1步工序错误-1,1,1,1,1,1,1,1错误日志.xlsx
@@ -372,7 +372,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -396,32 +396,87 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>21253</v>
+        <v>11079</v>
       </c>
       <c r="C2" t="n">
-        <v>21908</v>
+        <v>11958</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>10586</v>
+        <v>14716</v>
       </c>
       <c r="C3" t="n">
-        <v>11782</v>
+        <v>15834</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>25870</v>
+      </c>
+      <c r="C4" t="n">
+        <v>26863</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>26670</v>
+      </c>
+      <c r="C5" t="n">
+        <v>27800</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>11622</v>
+      </c>
+      <c r="C6" t="n">
+        <v>12606</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="n">
+        <v>4</v>
+      </c>
+      <c r="B7" t="n">
+        <v>14604</v>
+      </c>
+      <c r="C7" t="n">
+        <v>15830</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="n">
         <v>7</v>
       </c>
-      <c r="B4" t="n">
-        <v>296</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1229</v>
+      <c r="B8" t="n">
+        <v>7806</v>
+      </c>
+      <c r="C8" t="n">
+        <v>8609</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>8094</v>
+      </c>
+      <c r="C9" t="n">
+        <v>9085</v>
       </c>
     </row>
   </sheetData>

--- a/log/1步工序错误-1,1,1,1,1,1,1,1错误日志.xlsx
+++ b/log/1步工序错误-1,1,1,1,1,1,1,1错误日志.xlsx
@@ -372,7 +372,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -393,90 +393,46 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>11079</v>
+        <v>2944</v>
       </c>
       <c r="C2" t="n">
-        <v>11958</v>
+        <v>4085</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>14716</v>
+        <v>14795</v>
       </c>
       <c r="C3" t="n">
-        <v>15834</v>
+        <v>15724</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>25870</v>
+        <v>15408</v>
       </c>
       <c r="C4" t="n">
-        <v>26863</v>
+        <v>16661</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B5" t="n">
-        <v>26670</v>
+        <v>14709</v>
       </c>
       <c r="C5" t="n">
-        <v>27800</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>11622</v>
-      </c>
-      <c r="C6" t="n">
-        <v>12606</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="n">
-        <v>4</v>
-      </c>
-      <c r="B7" t="n">
-        <v>14604</v>
-      </c>
-      <c r="C7" t="n">
-        <v>15830</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" t="n">
-        <v>7806</v>
-      </c>
-      <c r="C8" t="n">
-        <v>8609</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" t="n">
-        <v>8094</v>
-      </c>
-      <c r="C9" t="n">
-        <v>9085</v>
+        <v>15516</v>
       </c>
     </row>
   </sheetData>

--- a/log/1步工序错误-1,1,1,1,1,1,1,1错误日志.xlsx
+++ b/log/1步工序错误-1,1,1,1,1,1,1,1错误日志.xlsx
@@ -372,7 +372,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -393,35 +393,35 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>2944</v>
+        <v>20355</v>
       </c>
       <c r="C2" t="n">
-        <v>4085</v>
+        <v>21297</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>14795</v>
+        <v>22191</v>
       </c>
       <c r="C3" t="n">
-        <v>15724</v>
+        <v>22957</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>15408</v>
+        <v>7977</v>
       </c>
       <c r="C4" t="n">
-        <v>16661</v>
+        <v>8776</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -429,10 +429,21 @@
         <v>6</v>
       </c>
       <c r="B5" t="n">
-        <v>14709</v>
+        <v>26569</v>
       </c>
       <c r="C5" t="n">
-        <v>15516</v>
+        <v>27375</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="n">
+        <v>8</v>
+      </c>
+      <c r="B6" t="n">
+        <v>26042</v>
+      </c>
+      <c r="C6" t="n">
+        <v>27109</v>
       </c>
     </row>
   </sheetData>
